--- a/06-junio/1_DEBARRENECHEA/DEBA.xlsx
+++ b/06-junio/1_DEBARRENECHEA/DEBA.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\05-mayo\1_DEBARRENECHEA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\1_DEBARRENECHEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13E4F0DD-AE37-4FCF-8BF1-204EAA0AEEC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F44047A-8EE1-441E-9BFA-4BE156F7F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27405" yWindow="960" windowWidth="25665" windowHeight="9840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>DE BARRENECHEA</t>
   </si>
@@ -80,7 +80,10 @@
     <t>BONO</t>
   </si>
   <si>
-    <t>MAYO 2025</t>
+    <t>JUNIO Y SAC 2025</t>
+  </si>
+  <si>
+    <t>SAC</t>
   </si>
 </sst>
 </file>
@@ -114,18 +117,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -155,33 +152,34 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -496,10 +494,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P32"/>
+  <dimension ref="A1:P33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,263 +534,386 @@
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-      <c r="K4" s="15">
+      <c r="K4" s="6">
         <f>+K6+20000</f>
-        <v>639514.16999999993</v>
+        <v>649565.04999999993</v>
       </c>
     </row>
     <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="10"/>
       <c r="E5" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4" t="s">
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="J5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="10" t="s">
         <v>12</v>
       </c>
+      <c r="N5" s="12"/>
+      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="6">
-        <v>548168.57999999996</v>
-      </c>
-      <c r="D6" s="6"/>
-      <c r="E6" s="11">
+      <c r="C6" s="14">
+        <v>579051.19999999995</v>
+      </c>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14">
         <f>+C6+D6</f>
-        <v>548168.57999999996</v>
-      </c>
-      <c r="F6" s="6">
-        <v>71345.59</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11">
+        <v>579051.19999999995</v>
+      </c>
+      <c r="F6" s="14">
+        <v>50513.85</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0</v>
+      </c>
+      <c r="H6" s="14">
+        <v>0</v>
+      </c>
+      <c r="I6" s="14">
+        <v>0</v>
+      </c>
+      <c r="J6" s="14">
         <f>+F6+G6+H6+I6</f>
-        <v>71345.59</v>
-      </c>
-      <c r="K6" s="6">
+        <v>50513.85</v>
+      </c>
+      <c r="K6" s="14">
         <f>+E6+J6</f>
-        <v>619514.16999999993</v>
-      </c>
-      <c r="L6" s="6">
+        <v>629565.04999999993</v>
+      </c>
+      <c r="L6" s="14">
         <f>+K6*2</f>
-        <v>1239028.3399999999</v>
-      </c>
-      <c r="M6" s="6">
+        <v>1259130.0999999999</v>
+      </c>
+      <c r="M6" s="14">
         <f>+E6+F6+G6+H6</f>
-        <v>619514.16999999993</v>
-      </c>
-      <c r="N6" s="9">
+        <v>629565.04999999993</v>
+      </c>
+      <c r="N6" s="15">
         <f>+M6*2</f>
-        <v>1239028.3399999999</v>
-      </c>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
+        <v>1259130.0999999999</v>
+      </c>
+      <c r="O6" s="15"/>
+      <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="6">
-        <v>554297.18000000005</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="11">
+      <c r="C7" s="14">
+        <v>650523.06999999995</v>
+      </c>
+      <c r="D7" s="14"/>
+      <c r="E7" s="14">
         <f>+C7+D7</f>
-        <v>554297.18000000005</v>
-      </c>
-      <c r="F7" s="6">
-        <v>72153.279999999999</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="11">
+        <v>650523.06999999995</v>
+      </c>
+      <c r="F7" s="14">
+        <v>51085.7</v>
+      </c>
+      <c r="G7" s="14">
+        <v>0</v>
+      </c>
+      <c r="H7" s="14">
+        <v>0</v>
+      </c>
+      <c r="I7" s="14">
+        <v>0</v>
+      </c>
+      <c r="J7" s="14">
         <f>+F7+G7+H7+I7</f>
-        <v>72153.279999999999</v>
-      </c>
-      <c r="K7" s="6">
+        <v>51085.7</v>
+      </c>
+      <c r="K7" s="14">
         <f>+E7+J7</f>
-        <v>626450.46000000008</v>
-      </c>
-      <c r="L7" s="6">
+        <v>701608.7699999999</v>
+      </c>
+      <c r="L7" s="14">
         <f>+K7*2</f>
-        <v>1252900.9200000002</v>
-      </c>
-      <c r="M7" s="6">
+        <v>1403217.5399999998</v>
+      </c>
+      <c r="M7" s="14">
         <f>+E7+F7+G7+H7</f>
-        <v>626450.46000000008</v>
-      </c>
-      <c r="N7" s="9">
+        <v>701608.7699999999</v>
+      </c>
+      <c r="N7" s="15">
         <f>+M7*2</f>
-        <v>1252900.9200000002</v>
-      </c>
-      <c r="O7" s="9"/>
-      <c r="P7" s="9"/>
+        <v>1403217.5399999998</v>
+      </c>
+      <c r="O7" s="15"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="6"/>
-      <c r="D8" s="6"/>
-      <c r="E8" s="11">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="14">
         <f>+C8+D8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="6"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="14"/>
+      <c r="M8" s="14"/>
+      <c r="N8" s="12"/>
+      <c r="O8" s="12"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="8">
+      <c r="B9" s="16"/>
+      <c r="C9" s="17">
         <f>SUM(C6:C8)</f>
-        <v>1102465.76</v>
-      </c>
-      <c r="D9" s="8">
+        <v>1229574.27</v>
+      </c>
+      <c r="D9" s="17">
         <f>SUM(D6:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="11">
+      <c r="E9" s="14">
         <f>+C9+D9</f>
-        <v>1102465.76</v>
-      </c>
-      <c r="F9" s="8">
+        <v>1229574.27</v>
+      </c>
+      <c r="F9" s="17">
         <f t="shared" ref="F9:K9" si="0">SUM(F6:F8)</f>
-        <v>143498.87</v>
-      </c>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8">
+        <v>101599.54999999999</v>
+      </c>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17">
         <f>SUM(I6:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="17">
         <f>SUM(J6:J8)</f>
-        <v>143498.87</v>
-      </c>
-      <c r="K9" s="8">
+        <v>101599.54999999999</v>
+      </c>
+      <c r="K9" s="17">
         <f t="shared" si="0"/>
-        <v>1245964.6299999999</v>
-      </c>
-      <c r="L9" s="8">
+        <v>1331173.8199999998</v>
+      </c>
+      <c r="L9" s="17">
         <f>SUM(L6:L8)</f>
-        <v>2491929.2599999998</v>
-      </c>
-      <c r="M9" s="8">
+        <v>2662347.6399999997</v>
+      </c>
+      <c r="M9" s="17">
         <f>SUM(M6:M8)</f>
-        <v>1245964.6299999999</v>
-      </c>
-      <c r="N9" s="8">
+        <v>1331173.8199999998</v>
+      </c>
+      <c r="N9" s="17">
         <f>SUM(N6:N8)</f>
-        <v>2491929.2599999998</v>
-      </c>
+        <v>2662347.6399999997</v>
+      </c>
+      <c r="O9" s="12"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
-      <c r="J11" s="14"/>
-      <c r="K11" s="14"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="14"/>
-      <c r="N11" s="14"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G12" s="14">
-        <v>1104923.94</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-      <c r="J12" s="14"/>
-      <c r="K12" s="14"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="14"/>
-      <c r="N12" s="14"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
-      <c r="I13" s="14"/>
-      <c r="J13" s="14"/>
-      <c r="K13" s="14"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="14"/>
-      <c r="N13" s="14"/>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B11" s="12"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="18"/>
+      <c r="H11" s="18"/>
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="18"/>
+      <c r="L11" s="18"/>
+      <c r="M11" s="18"/>
+      <c r="N11" s="18"/>
+      <c r="O11" s="12"/>
+    </row>
+    <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B12" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="G12" s="10"/>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J12" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="N12" s="12"/>
+      <c r="O12" s="12"/>
+    </row>
+    <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B13" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="14">
+        <v>579051.19999999995</v>
+      </c>
+      <c r="D13" s="14">
+        <v>289525.59999999998</v>
+      </c>
+      <c r="E13" s="14">
+        <f>+C13+D13</f>
+        <v>868576.79999999993</v>
+      </c>
+      <c r="F13" s="14">
+        <v>50513.85</v>
+      </c>
+      <c r="G13" s="14">
+        <v>25256.93</v>
+      </c>
+      <c r="H13" s="14">
+        <v>0</v>
+      </c>
+      <c r="I13" s="14">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14">
+        <f>+F13+G13+H13+I13</f>
+        <v>75770.78</v>
+      </c>
+      <c r="K13" s="14">
+        <f>+E13+J13</f>
+        <v>944347.58</v>
+      </c>
+      <c r="L13" s="14">
+        <f>+K13*2</f>
+        <v>1888695.16</v>
+      </c>
+      <c r="M13" s="14">
+        <f>+E13+F13+G13+H13</f>
+        <v>944347.58</v>
+      </c>
+      <c r="N13" s="15">
+        <f>+M13*2</f>
+        <v>1888695.16</v>
+      </c>
+      <c r="O13" s="12"/>
+    </row>
+    <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B14" s="13" t="s">
+        <v>6</v>
+      </c>
       <c r="C14" s="14">
-        <v>30110.28</v>
-      </c>
-      <c r="E14">
-        <v>30364.080000000002</v>
-      </c>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-      <c r="J14" s="14"/>
+        <v>650523.06999999995</v>
+      </c>
+      <c r="D14" s="14">
+        <v>325261.53999999998</v>
+      </c>
+      <c r="E14" s="14">
+        <f>+C14+D14</f>
+        <v>975784.60999999987</v>
+      </c>
+      <c r="F14" s="14">
+        <v>51085.7</v>
+      </c>
+      <c r="G14" s="14">
+        <v>25542.85</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="14">
+        <v>0</v>
+      </c>
+      <c r="J14" s="14">
+        <f>+F14+G14+H14+I14</f>
+        <v>76628.549999999988</v>
+      </c>
       <c r="K14" s="14">
-        <v>1242877.52</v>
-      </c>
-      <c r="L14" s="14"/>
-      <c r="M14" s="14"/>
-      <c r="N14" s="14"/>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C15" s="14">
-        <v>29505.01</v>
-      </c>
-      <c r="E15">
-        <v>29707.040000000001</v>
-      </c>
+        <f>+E14+J14</f>
+        <v>1052413.1599999999</v>
+      </c>
+      <c r="L14" s="14">
+        <f>+K14*2</f>
+        <v>2104826.3199999998</v>
+      </c>
+      <c r="M14" s="14">
+        <f>+E14+F14+G14+H14</f>
+        <v>1052413.1599999999</v>
+      </c>
+      <c r="N14" s="15">
+        <f>+M14*2</f>
+        <v>2104826.3199999998</v>
+      </c>
+      <c r="O14" s="12"/>
+    </row>
+    <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B15" s="13" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14">
+        <f>+C15+D15</f>
+        <v>0</v>
+      </c>
+      <c r="F15" s="14"/>
       <c r="G15" s="14"/>
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
@@ -800,160 +921,229 @@
       <c r="K15" s="14"/>
       <c r="L15" s="14"/>
       <c r="M15" s="14"/>
-      <c r="N15" s="14"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="C16" s="14">
-        <f>+C14-C15</f>
-        <v>605.27000000000044</v>
-      </c>
-      <c r="E16">
-        <f>+E14-E15</f>
-        <v>657.04000000000087</v>
-      </c>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-      <c r="J16" s="14"/>
-      <c r="K16" s="14"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="14"/>
-      <c r="N16" s="14"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+    </row>
+    <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="B16" s="16"/>
+      <c r="C16" s="17">
+        <f>SUM(C13:C15)</f>
+        <v>1229574.27</v>
+      </c>
+      <c r="D16" s="17">
+        <f>SUM(D13:D15)</f>
+        <v>614787.1399999999</v>
+      </c>
+      <c r="E16" s="14">
+        <f>+C16+D16</f>
+        <v>1844361.41</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" ref="F16:K16" si="1">SUM(F13:F15)</f>
+        <v>101599.54999999999</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="1"/>
+        <v>50799.78</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17">
+        <f>SUM(I13:I15)</f>
+        <v>0</v>
+      </c>
+      <c r="J16" s="17">
+        <f>SUM(J13:J15)</f>
+        <v>152399.32999999999</v>
+      </c>
+      <c r="K16" s="17">
+        <f t="shared" ref="K16:N16" si="2">SUM(K13:K15)</f>
+        <v>1996760.7399999998</v>
+      </c>
+      <c r="L16" s="17">
+        <f>SUM(L13:L15)</f>
+        <v>3993521.4799999995</v>
+      </c>
+      <c r="M16" s="17">
+        <f>SUM(M13:M15)</f>
+        <v>1996760.7399999998</v>
+      </c>
+      <c r="N16" s="17">
+        <f>SUM(N13:N15)</f>
+        <v>3993521.4799999995</v>
+      </c>
+      <c r="O16" s="12"/>
     </row>
     <row r="17" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-      <c r="J17" s="14"/>
-      <c r="K17" s="14"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="14"/>
-      <c r="N17" s="14"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5"/>
+      <c r="K17" s="5"/>
+      <c r="L17" s="5"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="5"/>
     </row>
     <row r="18" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C18" s="14">
-        <v>1206682.31</v>
-      </c>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
-      <c r="J18" s="14"/>
-      <c r="K18" s="14"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="14"/>
-      <c r="N18" s="14"/>
+      <c r="C18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5"/>
+      <c r="K18" s="5"/>
+      <c r="L18" s="5"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="5"/>
     </row>
     <row r="19" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C19" s="14">
-        <v>1030741.92</v>
-      </c>
-      <c r="G19" s="14"/>
-      <c r="H19" s="14"/>
-      <c r="I19" s="14"/>
-      <c r="J19" s="14"/>
-      <c r="K19" s="14"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="14"/>
-      <c r="N19" s="14"/>
+      <c r="C19" s="5"/>
+      <c r="G19" s="5"/>
+      <c r="H19" s="5"/>
+      <c r="I19" s="5"/>
+      <c r="J19" s="5"/>
+      <c r="K19" s="5"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="5"/>
     </row>
     <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="14"/>
-      <c r="H20" s="14"/>
-      <c r="I20" s="14"/>
-      <c r="J20" s="14"/>
-      <c r="K20" s="14"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="14"/>
-      <c r="N20" s="14"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="5"/>
+      <c r="M20" s="5"/>
+      <c r="N20" s="5"/>
     </row>
     <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="14"/>
-      <c r="H21" s="14"/>
-      <c r="I21" s="14"/>
-      <c r="J21" s="14"/>
-      <c r="K21" s="14"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="14"/>
-      <c r="N21" s="14"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
+      <c r="I21" s="5"/>
+      <c r="J21" s="5"/>
+      <c r="K21" s="5"/>
+      <c r="L21" s="5"/>
+      <c r="M21" s="5"/>
+      <c r="N21" s="5"/>
     </row>
     <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="16">
-        <v>990234.51</v>
-      </c>
-      <c r="G22" s="14"/>
-      <c r="H22" s="14"/>
-      <c r="I22" s="14"/>
-      <c r="J22" s="14"/>
-      <c r="K22" s="14"/>
-      <c r="L22" s="14"/>
-      <c r="M22" s="14"/>
-      <c r="N22" s="14"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9"/>
+      <c r="H22" s="9"/>
+      <c r="I22" s="5"/>
+      <c r="J22" s="5"/>
+      <c r="K22" s="5"/>
+      <c r="L22" s="5"/>
+      <c r="M22" s="5"/>
+      <c r="N22" s="5"/>
     </row>
     <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G23" s="14"/>
-      <c r="H23" s="14"/>
-      <c r="I23" s="14"/>
-      <c r="J23" s="14"/>
-      <c r="K23" s="14"/>
-      <c r="L23" s="14"/>
-      <c r="M23" s="14"/>
-      <c r="N23" s="14"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9"/>
+      <c r="H23" s="9"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="5"/>
+      <c r="L23" s="5"/>
+      <c r="M23" s="5"/>
+      <c r="N23" s="5"/>
     </row>
     <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G24" s="14"/>
-      <c r="H24" s="14"/>
-      <c r="I24" s="14"/>
-      <c r="J24" s="14"/>
-      <c r="K24" s="14"/>
-      <c r="L24" s="14"/>
-      <c r="M24" s="14"/>
-      <c r="N24" s="14"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+      <c r="F24" s="8"/>
+      <c r="G24" s="9"/>
+      <c r="H24" s="9"/>
+      <c r="I24" s="5"/>
+      <c r="J24" s="5"/>
+      <c r="K24" s="5"/>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
     </row>
     <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="14"/>
-      <c r="J25" s="14"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="14"/>
-      <c r="N25" s="14"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="8"/>
+      <c r="F25" s="8"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="5"/>
+      <c r="N25" s="5"/>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="8"/>
     </row>
     <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D27" s="17">
-        <v>33551.5</v>
-      </c>
-      <c r="E27" s="17">
-        <v>33147.72</v>
-      </c>
-      <c r="F27" s="17">
-        <f>+D27-E27</f>
-        <v>403.77999999999884</v>
-      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="8"/>
     </row>
     <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D28" s="17">
-        <v>31506.02</v>
-      </c>
-      <c r="E28" s="17">
-        <v>30922.26</v>
-      </c>
-      <c r="F28" s="17">
-        <f>+D28-E28</f>
-        <v>583.76000000000204</v>
-      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="8"/>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="8"/>
+      <c r="D29" s="8"/>
+      <c r="E29" s="8"/>
+      <c r="F29" s="8"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="8"/>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="8"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="8"/>
+      <c r="F30" s="8"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="8"/>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="8"/>
+      <c r="D31" s="8"/>
+      <c r="E31" s="8"/>
+      <c r="F31" s="8"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="8"/>
     </row>
     <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="D32">
-        <v>24096.07</v>
-      </c>
-      <c r="E32">
-        <v>24523.06</v>
-      </c>
-      <c r="F32">
-        <f>+E32-D32</f>
-        <v>426.9900000000016</v>
-      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8"/>
+      <c r="E32" s="8"/>
+      <c r="F32" s="8"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="8"/>
+    </row>
+    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
+      <c r="C33" s="8"/>
+      <c r="D33" s="8"/>
+      <c r="E33" s="8"/>
+      <c r="F33" s="8"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/06-junio/1_DEBARRENECHEA/DEBA.xlsx
+++ b/06-junio/1_DEBARRENECHEA/DEBA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan\Documents\GitHub\sueldos-oficina\06-junio\1_DEBARRENECHEA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F44047A-8EE1-441E-9BFA-4BE156F7F46E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAF9C2B-8FBE-4459-923C-2E5560329F35}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="33">
   <si>
     <t>DE BARRENECHEA</t>
   </si>
@@ -84,16 +84,68 @@
   </si>
   <si>
     <t>SAC</t>
+  </si>
+  <si>
+    <t>Base diferencial LRT</t>
+  </si>
+  <si>
+    <t>Remuneración Bruta</t>
+  </si>
+  <si>
+    <t>Bases Imponibles</t>
+  </si>
+  <si>
+    <t>1.Aportes Previsionales</t>
+  </si>
+  <si>
+    <t>2.Conttribuciones previsionales en INSSyP</t>
+  </si>
+  <si>
+    <t>3.Contribuciones FNE, asignaciones familiares y RENATRE</t>
+  </si>
+  <si>
+    <t>4.Aportes obra social y FSR</t>
+  </si>
+  <si>
+    <t>5.Aportes INSSJyP</t>
+  </si>
+  <si>
+    <t>6.Aportes diferenciales</t>
+  </si>
+  <si>
+    <t>7.Aportes personal regimienes especiales</t>
+  </si>
+  <si>
+    <t>8.Contribuciones obra social y FSR</t>
+  </si>
+  <si>
+    <t>9.Ley de riesgos del trabajo</t>
+  </si>
+  <si>
+    <t>10.Contribuciones Previsionales y PAMI - Ley 27.430</t>
+  </si>
+  <si>
+    <t>11.Importe a detraer</t>
+  </si>
+  <si>
+    <t>junio</t>
+  </si>
+  <si>
+    <t>sac</t>
+  </si>
+  <si>
+    <t>|</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="#,##0.00\ _€"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,16 +168,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -148,11 +214,190 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -162,24 +407,59 @@
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -494,10 +774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P33"/>
+  <dimension ref="A1:P45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="J27" sqref="J27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="Q11" sqref="Q11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,6 +791,7 @@
     <col min="9" max="9" width="21.42578125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="14" width="27.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
@@ -541,439 +822,405 @@
     </row>
     <row r="5" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A5" s="1"/>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10" t="s">
+      <c r="D5" s="7"/>
+      <c r="E5" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="10" t="s">
+      <c r="F5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10" t="s">
+      <c r="G5" s="7"/>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J5" s="11" t="s">
+      <c r="J5" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="K5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
     </row>
     <row r="6" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A6" s="1"/>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="10">
         <v>579051.19999999995</v>
       </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14">
+      <c r="D6" s="10"/>
+      <c r="E6" s="10">
         <f>+C6+D6</f>
         <v>579051.19999999995</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="10">
         <v>50513.85</v>
       </c>
-      <c r="G6" s="14">
-        <v>0</v>
-      </c>
-      <c r="H6" s="14">
-        <v>0</v>
-      </c>
-      <c r="I6" s="14">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14">
+      <c r="G6" s="10">
+        <v>0</v>
+      </c>
+      <c r="H6" s="10">
+        <v>0</v>
+      </c>
+      <c r="I6" s="10">
+        <v>0</v>
+      </c>
+      <c r="J6" s="10">
         <f>+F6+G6+H6+I6</f>
         <v>50513.85</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="10">
         <f>+E6+J6</f>
         <v>629565.04999999993</v>
       </c>
-      <c r="L6" s="14">
+      <c r="L6" s="10">
         <f>+K6*2</f>
         <v>1259130.0999999999</v>
       </c>
-      <c r="M6" s="14">
+      <c r="M6" s="10">
         <f>+E6+F6+G6+H6</f>
         <v>629565.04999999993</v>
       </c>
-      <c r="N6" s="15">
+      <c r="N6" s="4">
         <f>+M6*2</f>
         <v>1259130.0999999999</v>
       </c>
-      <c r="O6" s="15"/>
+      <c r="O6" s="4"/>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A7" s="1"/>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="10">
         <v>650523.06999999995</v>
       </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14">
+      <c r="D7" s="10"/>
+      <c r="E7" s="10">
         <f>+C7+D7</f>
         <v>650523.06999999995</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="10">
         <v>51085.7</v>
       </c>
-      <c r="G7" s="14">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14">
-        <v>0</v>
-      </c>
-      <c r="I7" s="14">
-        <v>0</v>
-      </c>
-      <c r="J7" s="14">
+      <c r="G7" s="10">
+        <v>0</v>
+      </c>
+      <c r="H7" s="10">
+        <v>0</v>
+      </c>
+      <c r="I7" s="10">
+        <v>0</v>
+      </c>
+      <c r="J7" s="10">
         <f>+F7+G7+H7+I7</f>
         <v>51085.7</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="10">
         <f>+E7+J7</f>
         <v>701608.7699999999</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="10">
         <f>+K7*2</f>
         <v>1403217.5399999998</v>
       </c>
-      <c r="M7" s="14">
+      <c r="M7" s="10">
         <f>+E7+F7+G7+H7</f>
         <v>701608.7699999999</v>
       </c>
-      <c r="N7" s="15">
+      <c r="N7" s="4">
         <f>+M7*2</f>
         <v>1403217.5399999998</v>
       </c>
-      <c r="O7" s="15"/>
+      <c r="O7" s="4"/>
       <c r="P7" s="4"/>
     </row>
     <row r="8" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A8" s="1"/>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="14"/>
-      <c r="E8" s="14">
+      <c r="C8" s="10"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="10">
         <f>+C8+D8</f>
         <v>0</v>
       </c>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="J8" s="14"/>
-      <c r="K8" s="14"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="14"/>
-      <c r="N8" s="12"/>
-      <c r="O8" s="12"/>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10"/>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="M8" s="10"/>
     </row>
     <row r="9" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
       <c r="A9" s="1"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17">
+      <c r="B9" s="11"/>
+      <c r="C9" s="12">
         <f>SUM(C6:C8)</f>
         <v>1229574.27</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="12">
         <f>SUM(D6:D8)</f>
         <v>0</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="10">
         <f>+C9+D9</f>
         <v>1229574.27</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="12">
         <f t="shared" ref="F9:K9" si="0">SUM(F6:F8)</f>
         <v>101599.54999999999</v>
       </c>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17">
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12">
         <f>SUM(I6:I8)</f>
         <v>0</v>
       </c>
-      <c r="J9" s="17">
+      <c r="J9" s="12">
         <f>SUM(J6:J8)</f>
         <v>101599.54999999999</v>
       </c>
-      <c r="K9" s="17">
+      <c r="K9" s="12">
         <f t="shared" si="0"/>
         <v>1331173.8199999998</v>
       </c>
-      <c r="L9" s="17">
+      <c r="L9" s="12">
         <f>SUM(L6:L8)</f>
         <v>2662347.6399999997</v>
       </c>
-      <c r="M9" s="17">
+      <c r="M9" s="12">
         <f>SUM(M6:M8)</f>
         <v>1331173.8199999998</v>
       </c>
-      <c r="N9" s="17">
+      <c r="N9" s="12">
         <f>SUM(N6:N8)</f>
         <v>2662347.6399999997</v>
       </c>
-      <c r="O9" s="12"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="12"/>
-      <c r="G10" s="12"/>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="12"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="O11" s="12"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="5"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="5"/>
     </row>
     <row r="12" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C12" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E12" s="10" t="s">
+      <c r="E12" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10" t="s">
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="11" t="s">
+      <c r="J12" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="K12" s="10" t="s">
+      <c r="K12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="M12" s="10" t="s">
+      <c r="M12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="12"/>
     </row>
     <row r="13" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="14">
-        <v>579051.19999999995</v>
-      </c>
-      <c r="D13" s="14">
+      <c r="C13" s="10">
+        <v>0</v>
+      </c>
+      <c r="D13" s="10">
         <v>289525.59999999998</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="10">
         <f>+C13+D13</f>
-        <v>868576.79999999993</v>
-      </c>
-      <c r="F13" s="14">
-        <v>50513.85</v>
-      </c>
-      <c r="G13" s="14">
+        <v>289525.59999999998</v>
+      </c>
+      <c r="F13" s="10">
+        <v>0</v>
+      </c>
+      <c r="G13" s="10">
         <v>25256.93</v>
       </c>
-      <c r="H13" s="14">
-        <v>0</v>
-      </c>
-      <c r="I13" s="14">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14">
+      <c r="H13" s="10">
+        <v>0</v>
+      </c>
+      <c r="I13" s="10">
+        <v>0</v>
+      </c>
+      <c r="J13" s="10">
         <f>+F13+G13+H13+I13</f>
-        <v>75770.78</v>
-      </c>
-      <c r="K13" s="14">
+        <v>25256.93</v>
+      </c>
+      <c r="K13" s="10">
         <f>+E13+J13</f>
-        <v>944347.58</v>
-      </c>
-      <c r="L13" s="14">
+        <v>314782.52999999997</v>
+      </c>
+      <c r="L13" s="10">
         <f>+K13*2</f>
-        <v>1888695.16</v>
-      </c>
-      <c r="M13" s="14">
+        <v>629565.05999999994</v>
+      </c>
+      <c r="M13" s="10">
         <f>+E13+F13+G13+H13</f>
-        <v>944347.58</v>
-      </c>
-      <c r="N13" s="15">
+        <v>314782.52999999997</v>
+      </c>
+      <c r="N13" s="4">
         <f>+M13*2</f>
-        <v>1888695.16</v>
-      </c>
-      <c r="O13" s="12"/>
+        <v>629565.05999999994</v>
+      </c>
     </row>
     <row r="14" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="14">
-        <v>650523.06999999995</v>
-      </c>
-      <c r="D14" s="14">
+      <c r="C14" s="10">
+        <v>0</v>
+      </c>
+      <c r="D14" s="10">
         <v>325261.53999999998</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="10">
         <f>+C14+D14</f>
-        <v>975784.60999999987</v>
-      </c>
-      <c r="F14" s="14">
-        <v>51085.7</v>
-      </c>
-      <c r="G14" s="14">
+        <v>325261.53999999998</v>
+      </c>
+      <c r="F14" s="10">
+        <v>0</v>
+      </c>
+      <c r="G14" s="10">
         <v>25542.85</v>
       </c>
-      <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="14">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14">
+      <c r="H14" s="10">
+        <v>0</v>
+      </c>
+      <c r="I14" s="10">
+        <v>0</v>
+      </c>
+      <c r="J14" s="10">
         <f>+F14+G14+H14+I14</f>
-        <v>76628.549999999988</v>
-      </c>
-      <c r="K14" s="14">
+        <v>25542.85</v>
+      </c>
+      <c r="K14" s="10">
         <f>+E14+J14</f>
-        <v>1052413.1599999999</v>
-      </c>
-      <c r="L14" s="14">
+        <v>350804.38999999996</v>
+      </c>
+      <c r="L14" s="10">
         <f>+K14*2</f>
-        <v>2104826.3199999998</v>
-      </c>
-      <c r="M14" s="14">
+        <v>701608.77999999991</v>
+      </c>
+      <c r="M14" s="10">
         <f>+E14+F14+G14+H14</f>
-        <v>1052413.1599999999</v>
-      </c>
-      <c r="N14" s="15">
+        <v>350804.38999999996</v>
+      </c>
+      <c r="N14" s="4">
         <f>+M14*2</f>
-        <v>2104826.3199999998</v>
-      </c>
-      <c r="O14" s="12"/>
+        <v>701608.77999999991</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14">
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
         <f>+C15+D15</f>
         <v>0</v>
       </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-      <c r="J15" s="14"/>
-      <c r="K15" s="14"/>
-      <c r="L15" s="14"/>
-      <c r="M15" s="14"/>
-      <c r="N15" s="12"/>
-      <c r="O15" s="12"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="M15" s="10"/>
     </row>
     <row r="16" spans="1:16" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="B16" s="16"/>
-      <c r="C16" s="17">
+      <c r="B16" s="11"/>
+      <c r="C16" s="12">
         <f>SUM(C13:C15)</f>
-        <v>1229574.27</v>
-      </c>
-      <c r="D16" s="17">
+        <v>0</v>
+      </c>
+      <c r="D16" s="12">
         <f>SUM(D13:D15)</f>
         <v>614787.1399999999</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="10">
         <f>+C16+D16</f>
-        <v>1844361.41</v>
-      </c>
-      <c r="F16" s="17">
-        <f t="shared" ref="F16:K16" si="1">SUM(F13:F15)</f>
-        <v>101599.54999999999</v>
-      </c>
-      <c r="G16" s="17">
+        <v>614787.1399999999</v>
+      </c>
+      <c r="F16" s="12">
+        <f t="shared" ref="F16:G16" si="1">SUM(F13:F15)</f>
+        <v>0</v>
+      </c>
+      <c r="G16" s="12">
         <f t="shared" si="1"/>
         <v>50799.78</v>
       </c>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17">
+      <c r="H16" s="12"/>
+      <c r="I16" s="12">
         <f>SUM(I13:I15)</f>
         <v>0</v>
       </c>
-      <c r="J16" s="17">
+      <c r="J16" s="12">
         <f>SUM(J13:J15)</f>
-        <v>152399.32999999999</v>
-      </c>
-      <c r="K16" s="17">
-        <f t="shared" ref="K16:N16" si="2">SUM(K13:K15)</f>
-        <v>1996760.7399999998</v>
-      </c>
-      <c r="L16" s="17">
+        <v>50799.78</v>
+      </c>
+      <c r="K16" s="12">
+        <f t="shared" ref="K16" si="2">SUM(K13:K15)</f>
+        <v>665586.91999999993</v>
+      </c>
+      <c r="L16" s="12">
         <f>SUM(L13:L15)</f>
-        <v>3993521.4799999995</v>
-      </c>
-      <c r="M16" s="17">
+        <v>1331173.8399999999</v>
+      </c>
+      <c r="M16" s="12">
         <f>SUM(M13:M15)</f>
-        <v>1996760.7399999998</v>
-      </c>
-      <c r="N16" s="17">
+        <v>665586.91999999993</v>
+      </c>
+      <c r="N16" s="12">
         <f>SUM(N13:N15)</f>
-        <v>3993521.4799999995</v>
-      </c>
-      <c r="O16" s="12"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
+        <v>1331173.8399999999</v>
+      </c>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.25">
       <c r="G17" s="5"/>
       <c r="H17" s="5"/>
       <c r="I17" s="5"/>
@@ -983,7 +1230,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="5"/>
     </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C18" s="5"/>
       <c r="G18" s="5"/>
       <c r="H18" s="5"/>
@@ -994,7 +1241,7 @@
       <c r="M18" s="5"/>
       <c r="N18" s="5"/>
     </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C19" s="5"/>
       <c r="G19" s="5"/>
       <c r="H19" s="5"/>
@@ -1005,147 +1252,580 @@
       <c r="M19" s="5"/>
       <c r="N19" s="5"/>
     </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
-      <c r="I20" s="5"/>
-      <c r="J20" s="5"/>
-      <c r="K20" s="5"/>
-      <c r="L20" s="5"/>
-      <c r="M20" s="5"/>
-      <c r="N20" s="5"/>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
-      <c r="I21" s="5"/>
-      <c r="J21" s="5"/>
-      <c r="K21" s="5"/>
-      <c r="L21" s="5"/>
-      <c r="M21" s="5"/>
-      <c r="N21" s="5"/>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C22" s="7"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="5"/>
-      <c r="J22" s="5"/>
-      <c r="K22" s="5"/>
-      <c r="L22" s="5"/>
-      <c r="M22" s="5"/>
-      <c r="N22" s="5"/>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C23" s="8"/>
-      <c r="D23" s="8"/>
-      <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="5"/>
-      <c r="J23" s="5"/>
-      <c r="K23" s="5"/>
-      <c r="L23" s="5"/>
-      <c r="M23" s="5"/>
-      <c r="N23" s="5"/>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C24" s="8"/>
-      <c r="D24" s="8"/>
-      <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="5"/>
-      <c r="J24" s="5"/>
-      <c r="K24" s="5"/>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C25" s="8"/>
-      <c r="D25" s="8"/>
-      <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="5"/>
-      <c r="J25" s="5"/>
-      <c r="K25" s="5"/>
-      <c r="L25" s="5"/>
-      <c r="M25" s="5"/>
-      <c r="N25" s="5"/>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C26" s="8"/>
-      <c r="D26" s="8"/>
-      <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C27" s="8"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="8"/>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C28" s="8"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C29" s="8"/>
-      <c r="D29" s="8"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C30" s="8"/>
-      <c r="D30" s="8"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C31" s="8"/>
-      <c r="D31" s="8"/>
-      <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="8"/>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
-      <c r="C32" s="8"/>
-      <c r="D32" s="8"/>
-      <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="8"/>
-    </row>
-    <row r="33" spans="3:8" x14ac:dyDescent="0.25">
-      <c r="C33" s="8"/>
-      <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="8"/>
+    <row r="20" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
+      <c r="I20" s="35" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="36"/>
+      <c r="N20" s="36"/>
+      <c r="O20" s="37"/>
+    </row>
+    <row r="21" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="38">
+        <f>+J6</f>
+        <v>50513.85</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="38">
+        <f>+G13</f>
+        <v>25256.93</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="23">
+        <f>+C21+E21</f>
+        <v>75770.78</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="16">
+        <f>+F7</f>
+        <v>51085.7</v>
+      </c>
+      <c r="K21" s="17"/>
+      <c r="L21" s="39">
+        <v>25542.85</v>
+      </c>
+      <c r="M21" s="17"/>
+      <c r="N21" s="18">
+        <f>+J21+L21</f>
+        <v>76628.549999999988</v>
+      </c>
+      <c r="O21" s="19"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="22"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
+      <c r="K22" s="22"/>
+      <c r="L22" s="22"/>
+      <c r="M22" s="22"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="24"/>
+    </row>
+    <row r="23" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="13">
+        <f>+K6</f>
+        <v>629565.04999999993</v>
+      </c>
+      <c r="D23" s="22"/>
+      <c r="E23" s="13">
+        <f>+K13</f>
+        <v>314782.52999999997</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="J23" s="13">
+        <f>+K7</f>
+        <v>701608.7699999999</v>
+      </c>
+      <c r="K23" s="22"/>
+      <c r="L23" s="22"/>
+      <c r="M23" s="22"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="24"/>
+    </row>
+    <row r="24" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B24" s="20"/>
+      <c r="C24" s="22"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="22"/>
+      <c r="K24" s="22"/>
+      <c r="L24" s="22"/>
+      <c r="M24" s="22"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+    </row>
+    <row r="25" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="H25" s="24"/>
+      <c r="I25" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="O25" s="24"/>
+    </row>
+    <row r="26" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B26" s="20"/>
+      <c r="C26" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="13">
+        <f>+C6</f>
+        <v>579051.19999999995</v>
+      </c>
+      <c r="G26" s="13">
+        <f>+D13</f>
+        <v>289525.59999999998</v>
+      </c>
+      <c r="H26" s="28">
+        <f>+F26+G26</f>
+        <v>868576.79999999993</v>
+      </c>
+      <c r="I26" s="20"/>
+      <c r="J26" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="K26" s="27"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="13">
+        <f>+C7</f>
+        <v>650523.06999999995</v>
+      </c>
+      <c r="N26" s="13">
+        <f>+D14</f>
+        <v>325261.53999999998</v>
+      </c>
+      <c r="O26" s="28">
+        <f>+M26+N26</f>
+        <v>975784.60999999987</v>
+      </c>
+    </row>
+    <row r="27" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B27" s="20"/>
+      <c r="C27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="13">
+        <f>+C6</f>
+        <v>579051.19999999995</v>
+      </c>
+      <c r="G27" s="13">
+        <f>+D13</f>
+        <v>289525.59999999998</v>
+      </c>
+      <c r="H27" s="28">
+        <f t="shared" ref="H27:H35" si="3">+F27+G27</f>
+        <v>868576.79999999993</v>
+      </c>
+      <c r="I27" s="20"/>
+      <c r="J27" s="27" t="s">
+        <v>20</v>
+      </c>
+      <c r="K27" s="27"/>
+      <c r="L27" s="27"/>
+      <c r="M27" s="13">
+        <f>+C7</f>
+        <v>650523.06999999995</v>
+      </c>
+      <c r="N27" s="13">
+        <f>+D14</f>
+        <v>325261.53999999998</v>
+      </c>
+      <c r="O27" s="28">
+        <f t="shared" ref="O27:O35" si="4">+M27+N27</f>
+        <v>975784.60999999987</v>
+      </c>
+    </row>
+    <row r="28" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B28" s="20"/>
+      <c r="C28" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="13">
+        <f>+C6</f>
+        <v>579051.19999999995</v>
+      </c>
+      <c r="G28" s="13">
+        <f>+D13</f>
+        <v>289525.59999999998</v>
+      </c>
+      <c r="H28" s="28">
+        <f t="shared" si="3"/>
+        <v>868576.79999999993</v>
+      </c>
+      <c r="I28" s="20"/>
+      <c r="J28" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="K28" s="27"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="13">
+        <f>+C7</f>
+        <v>650523.06999999995</v>
+      </c>
+      <c r="N28" s="13">
+        <f>+D14</f>
+        <v>325261.53999999998</v>
+      </c>
+      <c r="O28" s="28">
+        <f t="shared" si="4"/>
+        <v>975784.60999999987</v>
+      </c>
+    </row>
+    <row r="29" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B29" s="20"/>
+      <c r="C29" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="13">
+        <f>+L6</f>
+        <v>1259130.0999999999</v>
+      </c>
+      <c r="G29" s="13">
+        <f>+L13</f>
+        <v>629565.05999999994</v>
+      </c>
+      <c r="H29" s="28">
+        <f t="shared" si="3"/>
+        <v>1888695.1599999997</v>
+      </c>
+      <c r="I29" s="20"/>
+      <c r="J29" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="K29" s="27"/>
+      <c r="L29" s="27"/>
+      <c r="M29" s="13">
+        <f>+L7</f>
+        <v>1403217.5399999998</v>
+      </c>
+      <c r="N29" s="13">
+        <f>+L14</f>
+        <v>701608.77999999991</v>
+      </c>
+      <c r="O29" s="28">
+        <f t="shared" si="4"/>
+        <v>2104826.3199999998</v>
+      </c>
+    </row>
+    <row r="30" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B30" s="20"/>
+      <c r="C30" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="13">
+        <f>+C6</f>
+        <v>579051.19999999995</v>
+      </c>
+      <c r="G30" s="13">
+        <f>+D13</f>
+        <v>289525.59999999998</v>
+      </c>
+      <c r="H30" s="28">
+        <f t="shared" si="3"/>
+        <v>868576.79999999993</v>
+      </c>
+      <c r="I30" s="20"/>
+      <c r="J30" s="27" t="s">
+        <v>23</v>
+      </c>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="13">
+        <f>+C7</f>
+        <v>650523.06999999995</v>
+      </c>
+      <c r="N30" s="13">
+        <f>+D14</f>
+        <v>325261.53999999998</v>
+      </c>
+      <c r="O30" s="28">
+        <f t="shared" si="4"/>
+        <v>975784.60999999987</v>
+      </c>
+    </row>
+    <row r="31" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B31" s="20"/>
+      <c r="C31" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="14"/>
+      <c r="G31" s="14"/>
+      <c r="H31" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I31" s="20"/>
+      <c r="J31" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="14"/>
+      <c r="N31" s="14"/>
+      <c r="O31" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B32" s="20"/>
+      <c r="C32" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="14"/>
+      <c r="G32" s="14"/>
+      <c r="H32" s="30">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="I32" s="20"/>
+      <c r="J32" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="14"/>
+      <c r="N32" s="14"/>
+      <c r="O32" s="30">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B33" s="20"/>
+      <c r="C33" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="13">
+        <f>+L6</f>
+        <v>1259130.0999999999</v>
+      </c>
+      <c r="G33" s="13">
+        <f>+L13</f>
+        <v>629565.05999999994</v>
+      </c>
+      <c r="H33" s="28">
+        <f t="shared" si="3"/>
+        <v>1888695.1599999997</v>
+      </c>
+      <c r="I33" s="20"/>
+      <c r="J33" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="K33" s="27"/>
+      <c r="L33" s="27"/>
+      <c r="M33" s="13">
+        <f>+L7</f>
+        <v>1403217.5399999998</v>
+      </c>
+      <c r="N33" s="13">
+        <f>+L14</f>
+        <v>701608.77999999991</v>
+      </c>
+      <c r="O33" s="28">
+        <f t="shared" si="4"/>
+        <v>2104826.3199999998</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B34" s="20"/>
+      <c r="C34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="13">
+        <f>+C23</f>
+        <v>629565.04999999993</v>
+      </c>
+      <c r="G34" s="13">
+        <f>+K13</f>
+        <v>314782.52999999997</v>
+      </c>
+      <c r="H34" s="28">
+        <f t="shared" si="3"/>
+        <v>944347.57999999984</v>
+      </c>
+      <c r="I34" s="20"/>
+      <c r="J34" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="K34" s="27"/>
+      <c r="L34" s="27"/>
+      <c r="M34" s="13">
+        <f>+K7</f>
+        <v>701608.7699999999</v>
+      </c>
+      <c r="N34" s="13">
+        <f>+K14</f>
+        <v>350804.38999999996</v>
+      </c>
+      <c r="O34" s="28">
+        <f t="shared" si="4"/>
+        <v>1052413.1599999999</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="B35" s="20"/>
+      <c r="C35" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="13">
+        <f>+C6</f>
+        <v>579051.19999999995</v>
+      </c>
+      <c r="G35" s="13">
+        <f>+D13</f>
+        <v>289525.59999999998</v>
+      </c>
+      <c r="H35" s="28">
+        <f t="shared" si="3"/>
+        <v>868576.79999999993</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="27" t="s">
+        <v>28</v>
+      </c>
+      <c r="K35" s="27"/>
+      <c r="L35" s="27"/>
+      <c r="M35" s="13">
+        <f>+C7</f>
+        <v>650523.06999999995</v>
+      </c>
+      <c r="N35" s="13">
+        <f>+D14</f>
+        <v>325261.53999999998</v>
+      </c>
+      <c r="O35" s="28">
+        <f t="shared" si="4"/>
+        <v>975784.60999999987</v>
+      </c>
+    </row>
+    <row r="36" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B36" s="31"/>
+      <c r="C36" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="D36" s="32"/>
+      <c r="E36" s="32"/>
+      <c r="F36" s="33">
+        <v>4692.47</v>
+      </c>
+      <c r="G36" s="33"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="31"/>
+      <c r="J36" s="32" t="s">
+        <v>29</v>
+      </c>
+      <c r="K36" s="32"/>
+      <c r="L36" s="32"/>
+      <c r="M36" s="33">
+        <v>4692.47</v>
+      </c>
+      <c r="N36" s="33"/>
+      <c r="O36" s="34"/>
+    </row>
+    <row r="38" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F38" s="5">
+        <v>1252605.22</v>
+      </c>
+      <c r="M38" s="5">
+        <v>1396120.18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="F39" s="5">
+        <v>1882170.28</v>
+      </c>
+      <c r="M39" s="5">
+        <v>2097729.59</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.25">
+      <c r="J45" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="24">
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="I20:O20"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="C32:E32"/>
+    <mergeCell ref="C33:E33"/>
+    <mergeCell ref="C34:E34"/>
+    <mergeCell ref="C35:E35"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="B20:H20"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="C27:E27"/>
+    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C29:E29"/>
+    <mergeCell ref="C30:E30"/>
+    <mergeCell ref="C31:E31"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="79" orientation="portrait" r:id="rId1"/>
 </worksheet>
